--- a/data.xlsx
+++ b/data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Check_Password" sheetId="1" r:id="rId1"/>
     <sheet name="Check_ThuongHieu" sheetId="2" r:id="rId2"/>
     <sheet name="Check_Menu" sheetId="3" r:id="rId3"/>
+    <sheet name="Check_Title" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
   <si>
     <t xml:space="preserve">Number </t>
   </si>
@@ -252,6 +253,42 @@
   </si>
   <si>
     <t xml:space="preserve">CT Khuyến mại </t>
+  </si>
+  <si>
+    <t>Tuyển dụng</t>
+  </si>
+  <si>
+    <t>Bản mobile</t>
+  </si>
+  <si>
+    <t>Giới thiệu</t>
+  </si>
+  <si>
+    <t>Sản phẩm đã xem</t>
+  </si>
+  <si>
+    <t>Trung tâm bảo hành</t>
+  </si>
+  <si>
+    <t>Hệ thống 79 siêu thị</t>
+  </si>
+  <si>
+    <t>Tra cứu đơn hàng</t>
+  </si>
+  <si>
+    <t>Click vào Bản mobile</t>
+  </si>
+  <si>
+    <t>Hoàng Hà Mobile</t>
+  </si>
+  <si>
+    <t>Giới thiệu công ty</t>
+  </si>
+  <si>
+    <t>Hệ thống 79 siêu thị Hoàng Hà Mobile trên toàn quốc</t>
+  </si>
+  <si>
+    <t>Tra cứu</t>
   </si>
 </sst>
 </file>
@@ -303,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -318,6 +355,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -929,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1161,4 +1201,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>